--- a/Gemtek/0822_MatrixALL/experiment_item/20170822_Gemtek_Matrix.xlsx
+++ b/Gemtek/0822_MatrixALL/experiment_item/20170822_Gemtek_Matrix.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MH/SourceTreeproject/ML_DL_Learning/Gemtek/0816_MatrixALL/experiment_item/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MH/SourceTreeproject/ML_DL_Learning/Gemtek/0822_MatrixALL/experiment_item/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="2360" yWindow="1260" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Ford" sheetId="2" r:id="rId1"/>
+    <sheet name=" Veryca" sheetId="2" r:id="rId1"/>
     <sheet name="ColtPlus" sheetId="3" r:id="rId2"/>
     <sheet name="RV" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
   <si>
     <t>Experiment_type</t>
   </si>
@@ -49,9 +49,6 @@
     <t>EnV</t>
   </si>
   <si>
-    <t>Ford</t>
-  </si>
-  <si>
     <t>ClotPlus</t>
   </si>
   <si>
@@ -92,6 +89,18 @@
   </si>
   <si>
     <t>Back0</t>
+  </si>
+  <si>
+    <t>Front100</t>
+  </si>
+  <si>
+    <t>Veryca</t>
+  </si>
+  <si>
+    <t>Front120</t>
+  </si>
+  <si>
+    <t>Front150</t>
   </si>
 </sst>
 </file>
@@ -101,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d\ AM/PM\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -134,6 +143,11 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +229,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,12 +510,14 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -539,29 +556,29 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3">
-        <v>1502351302</v>
+        <v>1503373448</v>
       </c>
       <c r="D2" s="3">
-        <v>1502351602</v>
+        <v>1503373648</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" ref="E2:E12" si="0">D2-C2</f>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F12" si="1">E2/3</f>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:H2" si="2">(C2 + 60*60*8)/86400 + 25569</f>
-        <v>42957.658587962964</v>
+        <v>42969.488981481481</v>
       </c>
       <c r="H2" s="12">
         <f t="shared" si="2"/>
-        <v>42957.66206018519</v>
+        <v>42969.491296296299</v>
       </c>
       <c r="J2" s="5"/>
       <c r="M2" s="6"/>
@@ -570,32 +587,32 @@
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3">
-        <v>1502352306</v>
+        <v>1503374767</v>
       </c>
       <c r="D3" s="3">
-        <v>1502352413</v>
+        <v>1503374967</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" si="1"/>
-        <v>35.666666666666664</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ref="G3:H3" si="3">(C3 + 60*60*8)/86400 + 25569</f>
-        <v>42957.670208333337</v>
+        <v>42969.504247685181</v>
       </c>
       <c r="H3" s="12">
         <f t="shared" si="3"/>
-        <v>42957.671446759261</v>
+        <v>42969.506562499999</v>
       </c>
       <c r="J3" s="5"/>
       <c r="L3" s="1"/>
@@ -605,32 +622,32 @@
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
-        <v>1502352440</v>
+        <v>1503375477</v>
       </c>
       <c r="D4" s="3">
-        <v>1502352556</v>
+        <v>1503375677</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="1"/>
-        <v>38.666666666666664</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" ref="G4:H4" si="4">(C4 + 60*60*8)/86400 + 25569</f>
-        <v>42957.671759259261</v>
+        <v>42969.512465277774</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="4"/>
-        <v>42957.673101851848</v>
+        <v>42969.514780092592</v>
       </c>
       <c r="J4" s="5"/>
       <c r="L4" s="1"/>
@@ -640,32 +657,32 @@
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3">
-        <v>1502352556</v>
+        <v>1503375842</v>
       </c>
       <c r="D5" s="3">
-        <v>1502352644</v>
+        <v>1503376042</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
-        <v>29.333333333333332</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:H5" si="5">(C5 + 60*60*8)/86400 + 25569</f>
-        <v>42957.673101851848</v>
+        <v>42969.516689814816</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="5"/>
-        <v>42957.674120370371</v>
+        <v>42969.519004629634</v>
       </c>
       <c r="J5" s="5"/>
       <c r="L5" s="1"/>
@@ -675,32 +692,32 @@
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
-        <v>1502352644</v>
+        <v>1503376247</v>
       </c>
       <c r="D6" s="3">
-        <v>1502352726</v>
+        <v>1503376447</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
-        <v>27.333333333333332</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ref="G6:H6" si="6">(C6 + 60*60*8)/86400 + 25569</f>
-        <v>42957.674120370371</v>
+        <v>42969.521377314813</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" si="6"/>
-        <v>42957.675069444449</v>
+        <v>42969.523692129631</v>
       </c>
       <c r="J6" s="5"/>
       <c r="L6" s="1"/>
@@ -708,186 +725,150 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1502352761</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1502352835</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
-        <v>24.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ref="G7:H7" si="7">(C7 + 60*60*8)/86400 + 25569</f>
-        <v>42957.675474537042</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="7"/>
-        <v>42957.67633101852</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1502353020</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1502353112</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
-        <v>30.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8:H8" si="8">(C8 + 60*60*8)/86400 + 25569</f>
-        <v>42957.678472222222</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="8"/>
-        <v>42957.679537037038</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1502353274</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1502353377</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
-        <v>34.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ref="G9:H9" si="9">(C9 + 60*60*8)/86400 + 25569</f>
-        <v>42957.68141203704</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="9"/>
-        <v>42957.682604166665</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1502353377</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1502353456</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>26.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ref="G10:H10" si="10">(C10 + 60*60*8)/86400 + 25569</f>
-        <v>42957.682604166665</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="10"/>
-        <v>42957.683518518519</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1502351902</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1502352166</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ref="G11:H11" si="11">(C11 + 60*60*8)/86400 + 25569</f>
-        <v>42957.665532407409</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" si="11"/>
-        <v>42957.668587962966</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1502352166</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1502352302</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
-        <v>45.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ref="G12:H12" si="12">(C12 + 60*60*8)/86400 + 25569</f>
-        <v>42957.668587962966</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="12"/>
-        <v>42957.670162037037</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -899,10 +880,13 @@
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="E14" s="4"/>
     </row>
-    <row r="21" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="21"/>
+    </row>
+    <row r="21" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="14"/>
     </row>
   </sheetData>
@@ -915,7 +899,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C2" sqref="C2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -959,29 +943,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1502353592</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1502353792</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="7">
         <f t="shared" ref="E2:E12" si="0">D2-C2</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F12" si="1">E2/3</f>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10">
         <f t="shared" ref="G2:H2" si="2">(C2 + 60*60*8)/86400 + 25569</f>
-        <v>42957.685092592597</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H2" s="10">
         <f t="shared" si="2"/>
-        <v>42957.687407407408</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="J2" s="5"/>
       <c r="L2" s="6"/>
@@ -990,32 +970,28 @@
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1502354942</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1502354998</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="7">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>18.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" ref="G3:H3" si="3">(C3 + 60*60*8)/86400 + 25569</f>
-        <v>42957.700717592597</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" si="3"/>
-        <v>42957.701365740737</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="J3" s="5"/>
       <c r="L3" s="6"/>
@@ -1024,32 +1000,28 @@
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1502355022</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1502355090</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="1"/>
-        <v>22.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10">
         <f t="shared" ref="G4:H4" si="4">(C4 + 60*60*8)/86400 + 25569</f>
-        <v>42957.701643518521</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="4"/>
-        <v>42957.702430555553</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="J4" s="5"/>
       <c r="L4" s="6"/>
@@ -1058,32 +1030,28 @@
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1502355090</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1502355145</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>18.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" ref="G5:H5" si="5">(C5 + 60*60*8)/86400 + 25569</f>
-        <v>42957.702430555553</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="5"/>
-        <v>42957.703067129631</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1091,212 +1059,184 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1502355145</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1502355191</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="1"/>
-        <v>15.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" ref="G6:H6" si="6">(C6 + 60*60*8)/86400 + 25569</f>
-        <v>42957.703067129631</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="6"/>
-        <v>42957.703599537039</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1502355295</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1502355370</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" ref="G7:H7" si="7">(C7 + 60*60*8)/86400 + 25569</f>
-        <v>42957.70480324074</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="7"/>
-        <v>42957.705671296295</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1502355370</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1502355494</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="1"/>
-        <v>41.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" ref="G8:H8" si="8">(C8 + 60*60*8)/86400 + 25569</f>
-        <v>42957.705671296295</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="8"/>
-        <v>42957.707106481481</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1502355560</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1502355714</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>51.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" ref="G9:H9" si="9">(C9 + 60*60*8)/86400 + 25569</f>
-        <v>42957.707870370374</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="9"/>
-        <v>42957.709652777776</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1502355714</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1502355794</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>26.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" ref="G10:H10" si="10">(C10 + 60*60*8)/86400 + 25569</f>
-        <v>42957.709652777776</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="10"/>
-        <v>42957.7105787037</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1502354564</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1502354714</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" ref="G11:H11" si="11">(C11 + 60*60*8)/86400 + 25569</f>
-        <v>42957.696342592593</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="11"/>
-        <v>42957.698078703703</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1502354381</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1502354564</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" ref="G12:H12" si="12">(C12 + 60*60*8)/86400 + 25569</f>
-        <v>42957.694224537037</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="12"/>
-        <v>42957.696342592593</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1313,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1360,29 +1300,25 @@
         <v>6</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="14">
-        <v>1502342323</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1502342623</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="15">
         <f t="shared" ref="E2:E14" si="0">D2-C2</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F2" s="13">
         <f t="shared" ref="F2:F14" si="1">E2/3</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2" s="12">
         <f t="shared" ref="G2:H2" si="2">(C2 + 60*60*8)/86400 + 25569</f>
-        <v>42957.554664351846</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H2" s="12">
         <f t="shared" si="2"/>
-        <v>42957.558136574073</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -1392,32 +1328,28 @@
     </row>
     <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1502343083</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1502343166</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="15">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="F3" s="13">
         <f t="shared" si="1"/>
-        <v>27.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ref="G3:H3" si="3">(C3 + 60*60*8)/86400 + 25569</f>
-        <v>42957.563460648147</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H3" s="12">
         <f t="shared" si="3"/>
-        <v>42957.564421296294</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1427,32 +1359,28 @@
     </row>
     <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1502343166</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1502343207</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="15">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="1"/>
-        <v>13.666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" ref="G4:H4" si="4">(C4 + 60*60*8)/86400 + 25569</f>
-        <v>42957.564421296294</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="4"/>
-        <v>42957.564895833333</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1462,32 +1390,28 @@
     </row>
     <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1502343207</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1502343253</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="15">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="1"/>
-        <v>15.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:H5" si="5">(C5 + 60*60*8)/86400 + 25569</f>
-        <v>42957.564895833333</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="5"/>
-        <v>42957.565428240741</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1497,273 +1421,237 @@
     </row>
     <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1502343253</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1502343289</v>
-      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="15">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ref="G6:H6" si="6">(C6 + 60*60*8)/86400 + 25569</f>
-        <v>42957.565428240741</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H6" s="12">
         <f t="shared" si="6"/>
-        <v>42957.565844907411</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1502343462</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1502343582</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ref="G7:H7" si="7">(C7 + 60*60*8)/86400 + 25569</f>
-        <v>42957.567847222221</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="7"/>
-        <v>42957.569236111114</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1502343665</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1502343992</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="15">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8:H8" si="8">(C8 + 60*60*8)/86400 + 25569</f>
-        <v>42957.570196759261</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="8"/>
-        <v>42957.573981481481</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1502344008</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1502344201</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="15">
         <f t="shared" si="0"/>
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="1"/>
-        <v>64.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ref="G9:H9" si="9">(C9 + 60*60*8)/86400 + 25569</f>
-        <v>42957.574166666665</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="9"/>
-        <v>42957.57640046296</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="14">
-        <v>1502344674</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1502344800</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="15">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="F10" s="13">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ref="G10:H10" si="10">(C10 + 60*60*8)/86400 + 25569</f>
-        <v>42957.581875000003</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="10"/>
-        <v>42957.583333333328</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="14">
-        <v>1502344800</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1502345250</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ref="G11:H11" si="11">(C11 + 60*60*8)/86400 + 25569</f>
-        <v>42957.583333333328</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H11" s="12">
         <f t="shared" si="11"/>
-        <v>42957.588541666672</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1502345250</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1502345361</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="15">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ref="G12:H12" si="12">(C12 + 60*60*8)/86400 + 25569</f>
-        <v>42957.588541666672</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="12"/>
-        <v>42957.589826388888</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="14">
-        <v>1502349488</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1502349736</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="15">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="1"/>
-        <v>82.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" ref="G13:H13" si="13">(C13 + 60*60*8)/86400 + 25569</f>
-        <v>42957.637592592597</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H13" s="12">
         <f t="shared" si="13"/>
-        <v>42957.640462962961</v>
+        <v>25569.333333333332</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="17">
-        <v>1502349866</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1502350066</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" ref="G14:H14" si="14">(C14 + 60*60*8)/86400 + 25569</f>
-        <v>42957.641967592594</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="H14" s="19">
         <f t="shared" si="14"/>
-        <v>42957.644282407404</v>
+        <v>25569.333333333332</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
